--- a/Code/Results/Cases/Case_8_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027730407163577</v>
+        <v>1.020331005751461</v>
       </c>
       <c r="D2">
-        <v>1.042365018666051</v>
+        <v>1.036544683787546</v>
       </c>
       <c r="E2">
-        <v>1.039325940098114</v>
+        <v>1.03339540724253</v>
       </c>
       <c r="F2">
-        <v>1.04865814147699</v>
+        <v>1.043604887423113</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053342792560524</v>
+        <v>1.050957937291849</v>
       </c>
       <c r="J2">
-        <v>1.049112199919008</v>
+        <v>1.041920170615756</v>
       </c>
       <c r="K2">
-        <v>1.053264082826203</v>
+        <v>1.047517330202763</v>
       </c>
       <c r="L2">
-        <v>1.050263296793466</v>
+        <v>1.044408299619641</v>
       </c>
       <c r="M2">
-        <v>1.059478790637727</v>
+        <v>1.054488409035201</v>
       </c>
       <c r="N2">
-        <v>1.050602059577745</v>
+        <v>1.033101182315513</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.055645707925388</v>
+        <v>1.0516962259426</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04873252493893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044677834397533</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024319330456455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,105 +501,123 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032886253577268</v>
+        <v>1.024672900916038</v>
       </c>
       <c r="D3">
-        <v>1.045835462155384</v>
+        <v>1.03935833075917</v>
       </c>
       <c r="E3">
-        <v>1.043389149287335</v>
+        <v>1.036772776522713</v>
       </c>
       <c r="F3">
-        <v>1.052268803321592</v>
+        <v>1.046640412556598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054473357282875</v>
+        <v>1.051785547728347</v>
       </c>
       <c r="J3">
-        <v>1.052518857273201</v>
+        <v>1.044512832017221</v>
       </c>
       <c r="K3">
-        <v>1.055913628050213</v>
+        <v>1.049511213598356</v>
       </c>
       <c r="L3">
-        <v>1.053495399991316</v>
+        <v>1.046955807502059</v>
       </c>
       <c r="M3">
-        <v>1.062273879500238</v>
+        <v>1.056709372668574</v>
       </c>
       <c r="N3">
-        <v>1.054013554776129</v>
+        <v>1.034554750445398</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.057857784920379</v>
+        <v>1.053453940937551</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050603308586109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046084741671169</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024782698476059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.036153488146016</v>
+        <v>1.027430361919137</v>
       </c>
       <c r="D4">
-        <v>1.048037681719331</v>
+        <v>1.041148114197551</v>
       </c>
       <c r="E4">
-        <v>1.045969376551253</v>
+        <v>1.038923063210714</v>
       </c>
       <c r="F4">
-        <v>1.054562714617648</v>
+        <v>1.048573705522324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055179411530838</v>
+        <v>1.052301242538619</v>
       </c>
       <c r="J4">
-        <v>1.0546755136067</v>
+        <v>1.046157503411917</v>
       </c>
       <c r="K4">
-        <v>1.057588945303008</v>
+        <v>1.050774042181754</v>
       </c>
       <c r="L4">
-        <v>1.055542928317476</v>
+        <v>1.048573364598143</v>
       </c>
       <c r="M4">
-        <v>1.064044365187643</v>
+        <v>1.058119210460347</v>
       </c>
       <c r="N4">
-        <v>1.056173273808994</v>
+        <v>1.035476822363094</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059258971652628</v>
+        <v>1.054569712611153</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051788751497445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046978619573361</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025073522733316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037517665715065</v>
+        <v>1.028582537193263</v>
       </c>
       <c r="D5">
-        <v>1.048960183619229</v>
+        <v>1.041898958990748</v>
       </c>
       <c r="E5">
-        <v>1.047048910320839</v>
+        <v>1.039823676444077</v>
       </c>
       <c r="F5">
-        <v>1.055522701487405</v>
+        <v>1.049383648853345</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055473911768041</v>
+        <v>1.052516392098083</v>
       </c>
       <c r="J5">
-        <v>1.055577499858578</v>
+        <v>1.046846123152819</v>
       </c>
       <c r="K5">
-        <v>1.058290835889374</v>
+        <v>1.051304091592196</v>
       </c>
       <c r="L5">
-        <v>1.056399601092088</v>
+        <v>1.049250934204192</v>
       </c>
       <c r="M5">
-        <v>1.064785223759911</v>
+        <v>1.058709873424024</v>
       </c>
       <c r="N5">
-        <v>1.057076540984809</v>
+        <v>1.035862889619572</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059845296563584</v>
+        <v>1.055037173704138</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.05229208705921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04736119756941</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025195755210391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037753726325945</v>
+        <v>1.028781368305472</v>
       </c>
       <c r="D6">
-        <v>1.049122695679845</v>
+        <v>1.042031435268533</v>
       </c>
       <c r="E6">
-        <v>1.047236956991628</v>
+        <v>1.039980248321921</v>
       </c>
       <c r="F6">
-        <v>1.05568994125978</v>
+        <v>1.049524549801089</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055527452514261</v>
+        <v>1.052555927069048</v>
       </c>
       <c r="J6">
-        <v>1.05573605675823</v>
+        <v>1.046967233833266</v>
       </c>
       <c r="K6">
-        <v>1.058416276621709</v>
+        <v>1.051399469028156</v>
       </c>
       <c r="L6">
-        <v>1.056550216506092</v>
+        <v>1.049370049676862</v>
       </c>
       <c r="M6">
-        <v>1.064915659023588</v>
+        <v>1.058813948366796</v>
       </c>
       <c r="N6">
-        <v>1.057235323053445</v>
+        <v>1.035930788904178</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05994852464663</v>
+        <v>1.055119540420656</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052389382952497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047438144817844</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025218696017972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036193227312529</v>
+        <v>1.027500912203857</v>
       </c>
       <c r="D7">
-        <v>1.048072206273808</v>
+        <v>1.041206525235426</v>
       </c>
       <c r="E7">
-        <v>1.046004002804792</v>
+        <v>1.038985876064585</v>
       </c>
       <c r="F7">
-        <v>1.054593495339847</v>
+        <v>1.048627356657878</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055195393763642</v>
+        <v>1.052330387752121</v>
       </c>
       <c r="J7">
-        <v>1.054708559716843</v>
+        <v>1.046220532700643</v>
       </c>
       <c r="K7">
-        <v>1.057620280158735</v>
+        <v>1.050828971817238</v>
       </c>
       <c r="L7">
-        <v>1.055574354574806</v>
+        <v>1.048632636262135</v>
       </c>
       <c r="M7">
-        <v>1.064072024511617</v>
+        <v>1.05816946900869</v>
       </c>
       <c r="N7">
-        <v>1.056206366848403</v>
+        <v>1.035563656813191</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.059280861601944</v>
+        <v>1.054609488124441</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051830698135382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047039334349991</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025093018880653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029514975722102</v>
+        <v>1.021953779571394</v>
       </c>
       <c r="D8">
-        <v>1.043575251425313</v>
+        <v>1.037621607912067</v>
       </c>
       <c r="E8">
-        <v>1.04073537926639</v>
+        <v>1.034676437291981</v>
       </c>
       <c r="F8">
-        <v>1.049910286264852</v>
+        <v>1.044746809979855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053745640269545</v>
+        <v>1.051307000435083</v>
       </c>
       <c r="J8">
-        <v>1.050300329362706</v>
+        <v>1.042943765657514</v>
       </c>
       <c r="K8">
-        <v>1.054195627655854</v>
+        <v>1.048314989193616</v>
       </c>
       <c r="L8">
-        <v>1.051390449135678</v>
+        <v>1.04540631986173</v>
       </c>
       <c r="M8">
-        <v>1.060454108997338</v>
+        <v>1.055352942001405</v>
       </c>
       <c r="N8">
-        <v>1.051791876301533</v>
+        <v>1.033831365388472</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.056417590840603</v>
+        <v>1.052380435093418</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049413772650533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045266770899248</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024522066900108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017153095850674</v>
+        <v>1.011612784397284</v>
       </c>
       <c r="D9">
-        <v>1.03526579969942</v>
+        <v>1.030935042477473</v>
       </c>
       <c r="E9">
-        <v>1.031023115216336</v>
+        <v>1.026666239430555</v>
       </c>
       <c r="F9">
-        <v>1.041286528611091</v>
+        <v>1.037549472610949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050969229144996</v>
+        <v>1.049280737507992</v>
       </c>
       <c r="J9">
-        <v>1.042114342638242</v>
+        <v>1.036762026085052</v>
       </c>
       <c r="K9">
-        <v>1.047811499989002</v>
+        <v>1.043545394849803</v>
       </c>
       <c r="L9">
-        <v>1.04363214590131</v>
+        <v>1.039340999159403</v>
       </c>
       <c r="M9">
-        <v>1.053743481977083</v>
+        <v>1.050061357013371</v>
       </c>
       <c r="N9">
-        <v>1.043594264536973</v>
+        <v>1.030384860381633</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051106674864238</v>
+        <v>1.048192556213133</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044896729163229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041890987896636</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023399213040586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008616585206485</v>
+        <v>1.004698879906074</v>
       </c>
       <c r="D10">
-        <v>1.029578743201559</v>
+        <v>1.026539788581057</v>
       </c>
       <c r="E10">
-        <v>1.024382504644956</v>
+        <v>1.021400556602562</v>
       </c>
       <c r="F10">
-        <v>1.035426762000166</v>
+        <v>1.032838865336123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049035884324242</v>
+        <v>1.047954486178244</v>
       </c>
       <c r="J10">
-        <v>1.036492457676606</v>
+        <v>1.032727299684363</v>
       </c>
       <c r="K10">
-        <v>1.043433720533948</v>
+        <v>1.040445841108613</v>
       </c>
       <c r="L10">
-        <v>1.038325051672321</v>
+        <v>1.035393876773687</v>
       </c>
       <c r="M10">
-        <v>1.049184538156211</v>
+        <v>1.046639480650503</v>
       </c>
       <c r="N10">
-        <v>1.037964395853854</v>
+        <v>1.028354087049606</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047549498223073</v>
+        <v>1.045535395693668</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041818059919205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039717809277478</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022689268880603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005818747572742</v>
+        <v>1.002643591747097</v>
       </c>
       <c r="D11">
-        <v>1.027942021347239</v>
+        <v>1.025488769772056</v>
       </c>
       <c r="E11">
-        <v>1.022467799761071</v>
+        <v>1.020121597335226</v>
       </c>
       <c r="F11">
-        <v>1.033974974668271</v>
+        <v>1.031919903099999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048667514613761</v>
+        <v>1.047860080276523</v>
       </c>
       <c r="J11">
-        <v>1.034951447438023</v>
+        <v>1.031906806252654</v>
       </c>
       <c r="K11">
-        <v>1.042355553226525</v>
+        <v>1.039945498076203</v>
       </c>
       <c r="L11">
-        <v>1.036978090416486</v>
+        <v>1.03467377085443</v>
       </c>
       <c r="M11">
-        <v>1.048283407213372</v>
+        <v>1.046263958157194</v>
       </c>
       <c r="N11">
-        <v>1.036421197203975</v>
+        <v>1.02833538913022</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047268190307456</v>
+        <v>1.045670831287365</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.0410883293139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039399888951795</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022698006919765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005150855455041</v>
+        <v>1.002151821783661</v>
       </c>
       <c r="D12">
-        <v>1.027665536314576</v>
+        <v>1.025347659659564</v>
       </c>
       <c r="E12">
-        <v>1.022143602462987</v>
+        <v>1.019942795108159</v>
       </c>
       <c r="F12">
-        <v>1.033863491787168</v>
+        <v>1.031932862714105</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048720985842786</v>
+        <v>1.047967438099971</v>
       </c>
       <c r="J12">
-        <v>1.034738810352428</v>
+        <v>1.03186539102193</v>
       </c>
       <c r="K12">
-        <v>1.042281232311831</v>
+        <v>1.040004834192447</v>
       </c>
       <c r="L12">
-        <v>1.036858516583988</v>
+        <v>1.034697642957167</v>
       </c>
       <c r="M12">
-        <v>1.048369459004928</v>
+        <v>1.04647282656253</v>
       </c>
       <c r="N12">
-        <v>1.036208258149329</v>
+        <v>1.028503862558803</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047659666048657</v>
+        <v>1.046159952710543</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041035782825138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039441840168146</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02279301735885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006111161128373</v>
+        <v>1.002806990047758</v>
       </c>
       <c r="D13">
-        <v>1.0284485861598</v>
+        <v>1.025882471311001</v>
       </c>
       <c r="E13">
-        <v>1.023051884739856</v>
+        <v>1.020577691812903</v>
       </c>
       <c r="F13">
-        <v>1.034809047849623</v>
+        <v>1.032654154599508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049123574787617</v>
+        <v>1.048234588531039</v>
       </c>
       <c r="J13">
-        <v>1.035567434900323</v>
+        <v>1.032400837920691</v>
       </c>
       <c r="K13">
-        <v>1.043008049240687</v>
+        <v>1.040487625848629</v>
       </c>
       <c r="L13">
-        <v>1.037707785347479</v>
+        <v>1.035278248992272</v>
       </c>
       <c r="M13">
-        <v>1.049256523788377</v>
+        <v>1.047139370988397</v>
       </c>
       <c r="N13">
-        <v>1.037038059439127</v>
+        <v>1.028761486596251</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048635424298427</v>
+        <v>1.04696175452683</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041547186759918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039780461199284</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022958021146904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007520942637706</v>
+        <v>1.003793759189954</v>
       </c>
       <c r="D14">
-        <v>1.029477655839359</v>
+        <v>1.026571790348572</v>
       </c>
       <c r="E14">
-        <v>1.024245798432276</v>
+        <v>1.021399393950307</v>
       </c>
       <c r="F14">
-        <v>1.035949910785276</v>
+        <v>1.03348741048646</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049563543688107</v>
+        <v>1.048499276756585</v>
       </c>
       <c r="J14">
-        <v>1.03661936655459</v>
+        <v>1.033044990400644</v>
       </c>
       <c r="K14">
-        <v>1.043880553390114</v>
+        <v>1.041025751566286</v>
       </c>
       <c r="L14">
-        <v>1.03874090430757</v>
+        <v>1.035945181197587</v>
       </c>
       <c r="M14">
-        <v>1.050240405247469</v>
+        <v>1.047820456270325</v>
       </c>
       <c r="N14">
-        <v>1.038091484957</v>
+        <v>1.028988000417337</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049585195983407</v>
+        <v>1.047672412054396</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042165477828451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040162474344141</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023109177129007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008227773019455</v>
+        <v>1.004297901284352</v>
       </c>
       <c r="D15">
-        <v>1.029969274934261</v>
+        <v>1.02690194046976</v>
       </c>
       <c r="E15">
-        <v>1.024816010285303</v>
+        <v>1.021793178949686</v>
       </c>
       <c r="F15">
-        <v>1.036472353606643</v>
+        <v>1.03386357737177</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049752540350013</v>
+        <v>1.048607545479668</v>
       </c>
       <c r="J15">
-        <v>1.037113184782398</v>
+        <v>1.033342955348932</v>
       </c>
       <c r="K15">
-        <v>1.044278396368254</v>
+        <v>1.041264540633937</v>
       </c>
       <c r="L15">
-        <v>1.039215215522892</v>
+        <v>1.036245774615764</v>
       </c>
       <c r="M15">
-        <v>1.05066944690167</v>
+        <v>1.048105393039268</v>
       </c>
       <c r="N15">
-        <v>1.038586004463334</v>
+        <v>1.029075444129739</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049961589067449</v>
+        <v>1.047934953941206</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042452576763921</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040337698436183</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02316739802642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011669692624405</v>
+        <v>1.006837732697732</v>
       </c>
       <c r="D16">
-        <v>1.032236003306088</v>
+        <v>1.028456066248491</v>
       </c>
       <c r="E16">
-        <v>1.027462143939761</v>
+        <v>1.023664884054022</v>
       </c>
       <c r="F16">
-        <v>1.038797946171909</v>
+        <v>1.035544725236913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050511288277995</v>
+        <v>1.049023836439519</v>
       </c>
       <c r="J16">
-        <v>1.039352509790152</v>
+        <v>1.034706736308164</v>
       </c>
       <c r="K16">
-        <v>1.046011595127545</v>
+        <v>1.042294640004154</v>
       </c>
       <c r="L16">
-        <v>1.041317377791483</v>
+        <v>1.037584151942498</v>
       </c>
       <c r="M16">
-        <v>1.052465600664063</v>
+        <v>1.049265672007685</v>
       </c>
       <c r="N16">
-        <v>1.040828509569453</v>
+        <v>1.029438672735165</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.05134285310266</v>
+        <v>1.04881354838855</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043681115796776</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041069442000005</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023369752189704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013570940156425</v>
+        <v>1.008310423796018</v>
       </c>
       <c r="D17">
-        <v>1.033435990671231</v>
+        <v>1.029319465771952</v>
       </c>
       <c r="E17">
-        <v>1.028866738295239</v>
+        <v>1.024706964630315</v>
       </c>
       <c r="F17">
-        <v>1.039980710557371</v>
+        <v>1.036424499462777</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05086007736074</v>
+        <v>1.049217472748011</v>
       </c>
       <c r="J17">
-        <v>1.040517414260179</v>
+        <v>1.035452948489617</v>
       </c>
       <c r="K17">
-        <v>1.046882108564651</v>
+        <v>1.042832232592629</v>
       </c>
       <c r="L17">
-        <v>1.042386876860087</v>
+        <v>1.038295228815675</v>
       </c>
       <c r="M17">
-        <v>1.053322256980364</v>
+        <v>1.049822656937796</v>
       </c>
       <c r="N17">
-        <v>1.041995068337444</v>
+        <v>1.029670737132093</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051892019206278</v>
+        <v>1.049125573933748</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044299145493837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041452347357966</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02345499648862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014303400460242</v>
+        <v>1.008926250010535</v>
       </c>
       <c r="D18">
-        <v>1.033801660386816</v>
+        <v>1.029595863093468</v>
       </c>
       <c r="E18">
-        <v>1.029302296187175</v>
+        <v>1.025049657025751</v>
       </c>
       <c r="F18">
-        <v>1.040247682890282</v>
+        <v>1.03661148493682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050873161899501</v>
+        <v>1.049198066965745</v>
       </c>
       <c r="J18">
-        <v>1.04083672420719</v>
+        <v>1.035656224648017</v>
       </c>
       <c r="K18">
-        <v>1.047061371078817</v>
+        <v>1.042922566606994</v>
       </c>
       <c r="L18">
-        <v>1.042633702047627</v>
+        <v>1.038449569430545</v>
       </c>
       <c r="M18">
-        <v>1.053406061093975</v>
+        <v>1.049826826466213</v>
       </c>
       <c r="N18">
-        <v>1.042314831741205</v>
+        <v>1.029703119356283</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051722838056192</v>
+        <v>1.04889286079898</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044414375421538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041503538699849</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023420062861571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01402959938608</v>
+        <v>1.008770206446699</v>
       </c>
       <c r="D19">
-        <v>1.033464020034148</v>
+        <v>1.029355297798719</v>
       </c>
       <c r="E19">
-        <v>1.02890857429073</v>
+        <v>1.024764104984727</v>
       </c>
       <c r="F19">
-        <v>1.039726940868831</v>
+        <v>1.036177377248742</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050614457212175</v>
+        <v>1.048997590271734</v>
       </c>
       <c r="J19">
-        <v>1.040441272170319</v>
+        <v>1.035373216300564</v>
       </c>
       <c r="K19">
-        <v>1.046667498274298</v>
+        <v>1.042623921123958</v>
       </c>
       <c r="L19">
-        <v>1.042184320751354</v>
+        <v>1.038106316134015</v>
       </c>
       <c r="M19">
-        <v>1.052832384357635</v>
+        <v>1.049338196666188</v>
       </c>
       <c r="N19">
-        <v>1.041918818117083</v>
+        <v>1.02952148552183</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050947210790051</v>
+        <v>1.048183591297059</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044142228827256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041299362350006</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023284701444019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0108983893597</v>
+        <v>1.006416252908396</v>
       </c>
       <c r="D20">
-        <v>1.031118785918288</v>
+        <v>1.027632172559328</v>
       </c>
       <c r="E20">
-        <v>1.026166247743316</v>
+        <v>1.022697516306371</v>
       </c>
       <c r="F20">
-        <v>1.037001485887047</v>
+        <v>1.034009091795561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049577749489288</v>
+        <v>1.048277195218761</v>
       </c>
       <c r="J20">
-        <v>1.038015565703742</v>
+        <v>1.033702059854672</v>
       </c>
       <c r="K20">
-        <v>1.044635662804633</v>
+        <v>1.041205943046381</v>
       </c>
       <c r="L20">
-        <v>1.039764087278717</v>
+        <v>1.036352662824764</v>
       </c>
       <c r="M20">
-        <v>1.050423482643151</v>
+        <v>1.047479178756421</v>
       </c>
       <c r="N20">
-        <v>1.039489666869091</v>
+        <v>1.028706665575289</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048519546654836</v>
+        <v>1.046189462550013</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042709566478118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040301108424686</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022858319652471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0042673318893</v>
+        <v>1.001680112643621</v>
       </c>
       <c r="D21">
-        <v>1.0266665805108</v>
+        <v>1.024689728915047</v>
       </c>
       <c r="E21">
-        <v>1.020972559492013</v>
+        <v>1.019154193295699</v>
       </c>
       <c r="F21">
-        <v>1.032374974823799</v>
+        <v>1.030753228874725</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048005430772031</v>
+        <v>1.047457139433332</v>
       </c>
       <c r="J21">
-        <v>1.033587714869571</v>
+        <v>1.031107756602598</v>
       </c>
       <c r="K21">
-        <v>1.041159765530238</v>
+        <v>1.039217972677833</v>
       </c>
       <c r="L21">
-        <v>1.035567203552522</v>
+        <v>1.033781548406614</v>
       </c>
       <c r="M21">
-        <v>1.046767899423594</v>
+        <v>1.045174491002227</v>
       </c>
       <c r="N21">
-        <v>1.035055527978854</v>
+        <v>1.028057467107359</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045586028185651</v>
+        <v>1.044324959986905</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040255239835927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038899102191726</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02245325276755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000027756910637</v>
+        <v>0.9986529698160708</v>
       </c>
       <c r="D22">
-        <v>1.023831051391959</v>
+        <v>1.022826893755867</v>
       </c>
       <c r="E22">
-        <v>1.017671807250654</v>
+        <v>1.016913056712001</v>
       </c>
       <c r="F22">
-        <v>1.029451807316726</v>
+        <v>1.028712797660489</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046998142302395</v>
+        <v>1.046936905615681</v>
       </c>
       <c r="J22">
-        <v>1.030766731607992</v>
+        <v>1.029452399331512</v>
       </c>
       <c r="K22">
-        <v>1.038944745628341</v>
+        <v>1.037959314745738</v>
       </c>
       <c r="L22">
-        <v>1.032901127114868</v>
+        <v>1.03215674705594</v>
       </c>
       <c r="M22">
-        <v>1.044461557528699</v>
+        <v>1.043736129802054</v>
       </c>
       <c r="N22">
-        <v>1.032230538597472</v>
+        <v>1.027599892527207</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043760723698883</v>
+        <v>1.043186598647506</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038675744907431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037994468269808</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02220046544895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002262900249192</v>
+        <v>1.000179508485209</v>
       </c>
       <c r="D23">
-        <v>1.025317826448138</v>
+        <v>1.02374307248989</v>
       </c>
       <c r="E23">
-        <v>1.019407351106408</v>
+        <v>1.0180250200454</v>
       </c>
       <c r="F23">
-        <v>1.030988854708289</v>
+        <v>1.029730385223225</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047522840578206</v>
+        <v>1.047172698177621</v>
       </c>
       <c r="J23">
-        <v>1.032247384348122</v>
+        <v>1.030252820380696</v>
       </c>
       <c r="K23">
-        <v>1.040102283256899</v>
+        <v>1.038556133458038</v>
       </c>
       <c r="L23">
-        <v>1.03429976196544</v>
+        <v>1.032942914754867</v>
       </c>
       <c r="M23">
-        <v>1.045671241849408</v>
+        <v>1.04443529677021</v>
       </c>
       <c r="N23">
-        <v>1.033713294034326</v>
+        <v>1.027729822442303</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044718102798803</v>
+        <v>1.04373994016244</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039484588531943</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038405916751157</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022306414180322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01087902458817</v>
+        <v>1.006407868462163</v>
       </c>
       <c r="D24">
-        <v>1.031074308688632</v>
+        <v>1.02759645969881</v>
       </c>
       <c r="E24">
-        <v>1.026121826589407</v>
+        <v>1.022663493947576</v>
       </c>
       <c r="F24">
-        <v>1.03693899282538</v>
+        <v>1.033954637962028</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049537214990049</v>
+        <v>1.048242762216745</v>
       </c>
       <c r="J24">
-        <v>1.037964632465003</v>
+        <v>1.033661464633743</v>
       </c>
       <c r="K24">
-        <v>1.044576848714298</v>
+        <v>1.041155683429683</v>
       </c>
       <c r="L24">
-        <v>1.039705233800913</v>
+        <v>1.03630396881551</v>
       </c>
       <c r="M24">
-        <v>1.050347051525907</v>
+        <v>1.047410603400058</v>
       </c>
       <c r="N24">
-        <v>1.03943866129931</v>
+        <v>1.028676026745055</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048418661850412</v>
+        <v>1.046094681558772</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042640826797243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040235683936511</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022833775319798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02045600623322</v>
+        <v>1.014314454861496</v>
       </c>
       <c r="D25">
-        <v>1.037494782912451</v>
+        <v>1.032683920388942</v>
       </c>
       <c r="E25">
-        <v>1.03361807076109</v>
+        <v>1.028751586255947</v>
       </c>
       <c r="F25">
-        <v>1.043589232196702</v>
+        <v>1.039426446019058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051732294302223</v>
+        <v>1.04981795291473</v>
       </c>
       <c r="J25">
-        <v>1.044314024815174</v>
+        <v>1.038369500368294</v>
       </c>
       <c r="K25">
-        <v>1.049537645047462</v>
+        <v>1.044795195739153</v>
       </c>
       <c r="L25">
-        <v>1.045715998911497</v>
+        <v>1.040919383816994</v>
       </c>
       <c r="M25">
-        <v>1.055546570804391</v>
+        <v>1.051442063935983</v>
       </c>
       <c r="N25">
-        <v>1.045797070514904</v>
+        <v>1.031220621954805</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052533676820806</v>
+        <v>1.049285280863828</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04614545526148</v>
+        <v>1.042805804687364</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023694743565372</v>
       </c>
     </row>
   </sheetData>
